--- a/src/main/java/safe_rl/runners/trading/results/g2vVsV2g.xlsx
+++ b/src/main/java/safe_rl/runners/trading/results/g2vVsV2g.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="44">
   <si>
     <t>priceBattery</t>
   </si>
@@ -47,7 +47,7 @@
     <t>0</t>
   </si>
   <si>
-    <t>0.40000000000000036</t>
+    <t>9.5</t>
   </si>
   <si>
     <t>20000.0</t>
@@ -59,13 +59,91 @@
     <t>3.5</t>
   </si>
   <si>
+    <t>0.2999999999999998</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
+    <t>0.30000000000000004</t>
+  </si>
+  <si>
+    <t>15.3</t>
+  </si>
+  <si>
     <t>500.0</t>
   </si>
   <si>
-    <t>0.6999999999999993</t>
+    <t>10.2</t>
+  </si>
+  <si>
+    <t>0.30000000000000027</t>
+  </si>
+  <si>
+    <t>14.899999999999999</t>
+  </si>
+  <si>
+    <t>8.7</t>
+  </si>
+  <si>
+    <t>0.6000000000000001</t>
+  </si>
+  <si>
+    <t>0.5999999999999999</t>
+  </si>
+  <si>
+    <t>14.299999999999999</t>
+  </si>
+  <si>
+    <t>5.5</t>
+  </si>
+  <si>
+    <t>5.6</t>
+  </si>
+  <si>
+    <t>0.7000000000000002</t>
+  </si>
+  <si>
+    <t>1.3</t>
+  </si>
+  <si>
+    <t>6.300000000000001</t>
+  </si>
+  <si>
+    <t>0.8999999999999999</t>
+  </si>
+  <si>
+    <t>1.2999999999999998</t>
+  </si>
+  <si>
+    <t>6.1000000000000005</t>
+  </si>
+  <si>
+    <t>5.800000000000001</t>
+  </si>
+  <si>
+    <t>1.6</t>
+  </si>
+  <si>
+    <t>6.2</t>
+  </si>
+  <si>
+    <t>6.6</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>1.7</t>
+  </si>
+  <si>
+    <t>9.600000000000001</t>
+  </si>
+  <si>
+    <t>14.6</t>
+  </si>
+  <si>
+    <t>1.3000000000000003</t>
   </si>
 </sst>
 </file>
@@ -181,7 +259,7 @@
         <v>10</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
@@ -198,10 +276,10 @@
         <v>14</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5">
@@ -218,10 +296,10 @@
         <v>9</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
@@ -229,7 +307,7 @@
         <v>12</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s" s="0">
         <v>8</v>
@@ -241,7 +319,7 @@
         <v>10</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
@@ -261,7 +339,7 @@
         <v>10</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
@@ -278,10 +356,10 @@
         <v>14</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9">
@@ -289,7 +367,7 @@
         <v>12</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s" s="0">
         <v>8</v>
@@ -298,10 +376,10 @@
         <v>9</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10">
@@ -309,7 +387,7 @@
         <v>6</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s" s="0">
         <v>8</v>
@@ -321,7 +399,7 @@
         <v>10</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11">
@@ -329,7 +407,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s" s="0">
         <v>13</v>
@@ -341,7 +419,7 @@
         <v>10</v>
       </c>
       <c r="F11" t="s" s="0">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12">
@@ -349,7 +427,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s" s="0">
         <v>13</v>
@@ -358,10 +436,10 @@
         <v>14</v>
       </c>
       <c r="E12" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F12" t="s" s="0">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13">
@@ -369,7 +447,7 @@
         <v>6</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s" s="0">
         <v>8</v>
@@ -378,10 +456,10 @@
         <v>9</v>
       </c>
       <c r="E13" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F13" t="s" s="0">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14">
@@ -401,7 +479,7 @@
         <v>10</v>
       </c>
       <c r="F14" t="s" s="0">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15">
@@ -418,10 +496,10 @@
         <v>9</v>
       </c>
       <c r="E15" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F15" t="s" s="0">
-        <v>11</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16">
@@ -429,7 +507,7 @@
         <v>6</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s" s="0">
         <v>13</v>
@@ -441,7 +519,7 @@
         <v>10</v>
       </c>
       <c r="F16" t="s" s="0">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17">
@@ -449,7 +527,7 @@
         <v>6</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>13</v>
@@ -458,10 +536,10 @@
         <v>14</v>
       </c>
       <c r="E17" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F17" t="s" s="0">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18">
@@ -478,10 +556,10 @@
         <v>14</v>
       </c>
       <c r="E18" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F18" t="s" s="0">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19">
@@ -501,7 +579,7 @@
         <v>10</v>
       </c>
       <c r="F19" t="s" s="0">
-        <v>11</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20">
@@ -518,10 +596,10 @@
         <v>9</v>
       </c>
       <c r="E20" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F20" t="s" s="0">
-        <v>11</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21">
@@ -541,7 +619,7 @@
         <v>10</v>
       </c>
       <c r="F21" t="s" s="0">
-        <v>11</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22">
@@ -558,10 +636,10 @@
         <v>14</v>
       </c>
       <c r="E22" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F22" t="s" s="0">
-        <v>11</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23">
@@ -569,7 +647,7 @@
         <v>12</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C23" t="s" s="0">
         <v>13</v>
@@ -581,7 +659,7 @@
         <v>10</v>
       </c>
       <c r="F23" t="s" s="0">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24">
@@ -589,7 +667,7 @@
         <v>12</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C24" t="s" s="0">
         <v>13</v>
@@ -598,10 +676,10 @@
         <v>9</v>
       </c>
       <c r="E24" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F24" t="s" s="0">
-        <v>17</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25">
@@ -621,7 +699,7 @@
         <v>10</v>
       </c>
       <c r="F25" t="s" s="0">
-        <v>11</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26">
@@ -629,7 +707,7 @@
         <v>12</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C26" t="s" s="0">
         <v>8</v>
@@ -638,10 +716,10 @@
         <v>14</v>
       </c>
       <c r="E26" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F26" t="s" s="0">
-        <v>17</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27">
@@ -649,7 +727,7 @@
         <v>6</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C27" t="s" s="0">
         <v>13</v>
@@ -661,7 +739,7 @@
         <v>10</v>
       </c>
       <c r="F27" t="s" s="0">
-        <v>17</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28">
@@ -669,7 +747,7 @@
         <v>6</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C28" t="s" s="0">
         <v>13</v>
@@ -678,10 +756,10 @@
         <v>9</v>
       </c>
       <c r="E28" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F28" t="s" s="0">
-        <v>17</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29">
@@ -689,7 +767,7 @@
         <v>12</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C29" t="s" s="0">
         <v>8</v>
@@ -701,7 +779,7 @@
         <v>10</v>
       </c>
       <c r="F29" t="s" s="0">
-        <v>17</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30">
@@ -709,7 +787,7 @@
         <v>6</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C30" t="s" s="0">
         <v>8</v>
@@ -718,10 +796,10 @@
         <v>14</v>
       </c>
       <c r="E30" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F30" t="s" s="0">
-        <v>17</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31">
@@ -741,7 +819,7 @@
         <v>10</v>
       </c>
       <c r="F31" t="s" s="0">
-        <v>11</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32">
@@ -758,10 +836,10 @@
         <v>9</v>
       </c>
       <c r="E32" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F32" t="s" s="0">
-        <v>11</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33">
@@ -769,7 +847,7 @@
         <v>6</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C33" t="s" s="0">
         <v>8</v>
@@ -781,7 +859,7 @@
         <v>10</v>
       </c>
       <c r="F33" t="s" s="0">
-        <v>17</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/safe_rl/runners/trading/results/g2vVsV2g.xlsx
+++ b/src/main/java/safe_rl/runners/trading/results/g2vVsV2g.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="47">
   <si>
     <t>priceBattery</t>
   </si>
@@ -32,118 +32,127 @@
     <t>sumCostDiff</t>
   </si>
   <si>
-    <t>30000.0</t>
+    <t>40000.0</t>
+  </si>
+  <si>
+    <t>500.0</t>
+  </si>
+  <si>
+    <t>0.55</t>
+  </si>
+  <si>
+    <t>3.5</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>1.7</t>
+  </si>
+  <si>
+    <t>20000.0</t>
   </si>
   <si>
     <t>1000.0</t>
   </si>
   <si>
-    <t>0.55</t>
+    <t>0.85</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>0.30000000000000004</t>
+  </si>
+  <si>
+    <t>1.1</t>
   </si>
   <si>
     <t>22.0</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>9.5</t>
-  </si>
-  <si>
-    <t>20000.0</t>
-  </si>
-  <si>
-    <t>0.85</t>
-  </si>
-  <si>
-    <t>3.5</t>
+    <t>8.4</t>
+  </si>
+  <si>
+    <t>9.200000000000001</t>
+  </si>
+  <si>
+    <t>12.0</t>
+  </si>
+  <si>
+    <t>13.299999999999999</t>
+  </si>
+  <si>
+    <t>0.49999999999999956</t>
+  </si>
+  <si>
+    <t>0.7000000000000002</t>
   </si>
   <si>
     <t>0.2999999999999998</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>0.30000000000000004</t>
-  </si>
-  <si>
-    <t>15.3</t>
-  </si>
-  <si>
-    <t>500.0</t>
-  </si>
-  <si>
-    <t>10.2</t>
-  </si>
-  <si>
-    <t>0.30000000000000027</t>
-  </si>
-  <si>
-    <t>14.899999999999999</t>
-  </si>
-  <si>
-    <t>8.7</t>
+    <t>0.5999999999999999</t>
+  </si>
+  <si>
+    <t>8.2</t>
+  </si>
+  <si>
+    <t>5.699999999999999</t>
+  </si>
+  <si>
+    <t>5.6</t>
+  </si>
+  <si>
+    <t>14.2</t>
+  </si>
+  <si>
+    <t>1.3</t>
+  </si>
+  <si>
+    <t>0.9000000000000004</t>
   </si>
   <si>
     <t>0.6000000000000001</t>
   </si>
   <si>
-    <t>0.5999999999999999</t>
-  </si>
-  <si>
-    <t>14.299999999999999</t>
-  </si>
-  <si>
-    <t>5.5</t>
-  </si>
-  <si>
-    <t>5.6</t>
-  </si>
-  <si>
-    <t>0.7000000000000002</t>
-  </si>
-  <si>
-    <t>1.3</t>
-  </si>
-  <si>
-    <t>6.300000000000001</t>
-  </si>
-  <si>
     <t>0.8999999999999999</t>
   </si>
   <si>
+    <t>5.9</t>
+  </si>
+  <si>
+    <t>5.7</t>
+  </si>
+  <si>
+    <t>7.4</t>
+  </si>
+  <si>
+    <t>6.0</t>
+  </si>
+  <si>
     <t>1.2999999999999998</t>
   </si>
   <si>
-    <t>6.1000000000000005</t>
-  </si>
-  <si>
-    <t>5.800000000000001</t>
-  </si>
-  <si>
     <t>1.6</t>
   </si>
   <si>
-    <t>6.2</t>
-  </si>
-  <si>
-    <t>6.6</t>
+    <t>0.7999999999999998</t>
   </si>
   <si>
     <t>1.2</t>
   </si>
   <si>
-    <t>1.7</t>
-  </si>
-  <si>
-    <t>9.600000000000001</t>
-  </si>
-  <si>
-    <t>14.6</t>
-  </si>
-  <si>
-    <t>1.3000000000000003</t>
+    <t>8.8</t>
+  </si>
+  <si>
+    <t>7.3999999999999995</t>
+  </si>
+  <si>
+    <t>12.600000000000001</t>
   </si>
 </sst>
 </file>
@@ -247,19 +256,19 @@
         <v>12</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
@@ -267,16 +276,16 @@
         <v>12</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s" s="0">
         <v>17</v>
@@ -296,7 +305,7 @@
         <v>9</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s" s="0">
         <v>18</v>
@@ -304,19 +313,19 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F6" t="s" s="0">
         <v>20</v>
@@ -324,22 +333,22 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s" s="0">
         <v>7</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8">
@@ -347,19 +356,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9">
@@ -367,19 +376,19 @@
         <v>12</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10">
@@ -387,19 +396,19 @@
         <v>6</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s" s="0">
         <v>9</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11">
@@ -407,79 +416,79 @@
         <v>12</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E11" t="s" s="0">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F11" t="s" s="0">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E12" t="s" s="0">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F12" t="s" s="0">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s" s="0">
         <v>9</v>
       </c>
       <c r="E13" t="s" s="0">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F13" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B14" t="s" s="0">
         <v>7</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E14" t="s" s="0">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F14" t="s" s="0">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15">
@@ -487,39 +496,39 @@
         <v>12</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E15" t="s" s="0">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F15" t="s" s="0">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E16" t="s" s="0">
         <v>10</v>
       </c>
       <c r="F16" t="s" s="0">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17">
@@ -527,19 +536,19 @@
         <v>6</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E17" t="s" s="0">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F17" t="s" s="0">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18">
@@ -547,19 +556,19 @@
         <v>12</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C18" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E18" t="s" s="0">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F18" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19">
@@ -570,16 +579,16 @@
         <v>7</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D19" t="s" s="0">
         <v>9</v>
       </c>
       <c r="E19" t="s" s="0">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F19" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20">
@@ -590,16 +599,16 @@
         <v>7</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D20" t="s" s="0">
         <v>9</v>
       </c>
       <c r="E20" t="s" s="0">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F20" t="s" s="0">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21">
@@ -607,19 +616,19 @@
         <v>12</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C21" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E21" t="s" s="0">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F21" t="s" s="0">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22">
@@ -627,19 +636,19 @@
         <v>6</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E22" t="s" s="0">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F22" t="s" s="0">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23">
@@ -647,90 +656,90 @@
         <v>12</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E23" t="s" s="0">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F23" t="s" s="0">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E24" t="s" s="0">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F24" t="s" s="0">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B25" t="s" s="0">
         <v>7</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E25" t="s" s="0">
         <v>10</v>
       </c>
       <c r="F25" t="s" s="0">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C26" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E26" t="s" s="0">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F26" t="s" s="0">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D27" t="s" s="0">
         <v>9</v>
@@ -739,7 +748,7 @@
         <v>10</v>
       </c>
       <c r="F27" t="s" s="0">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28">
@@ -747,19 +756,19 @@
         <v>6</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D28" t="s" s="0">
         <v>9</v>
       </c>
       <c r="E28" t="s" s="0">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F28" t="s" s="0">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29">
@@ -767,99 +776,99 @@
         <v>12</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C29" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E29" t="s" s="0">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F29" t="s" s="0">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C30" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E30" t="s" s="0">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F30" t="s" s="0">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B31" t="s" s="0">
         <v>7</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E31" t="s" s="0">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F31" t="s" s="0">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B32" t="s" s="0">
         <v>7</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D32" t="s" s="0">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E32" t="s" s="0">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F32" t="s" s="0">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C33" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D33" t="s" s="0">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E33" t="s" s="0">
         <v>10</v>
       </c>
       <c r="F33" t="s" s="0">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
